--- a/data/pca/factorExposure/factorExposure_2014-08-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.009364039197212662</v>
+        <v>0.01907299159614649</v>
       </c>
       <c r="C2">
-        <v>-0.1195819219933597</v>
+        <v>-0.06783206402217323</v>
       </c>
       <c r="D2">
-        <v>0.01544774110323355</v>
+        <v>0.03017402866867874</v>
       </c>
       <c r="E2">
-        <v>0.2208662354714923</v>
+        <v>-0.002510591888117634</v>
       </c>
       <c r="F2">
-        <v>0.05124823927288625</v>
+        <v>0.03291050206046561</v>
       </c>
       <c r="G2">
-        <v>-0.07629458408376549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1663882776184938</v>
+      </c>
+      <c r="H2">
+        <v>-0.02327113459253434</v>
+      </c>
+      <c r="I2">
+        <v>0.01745851494437985</v>
+      </c>
+      <c r="J2">
+        <v>-0.1215803824849928</v>
+      </c>
+      <c r="K2">
+        <v>-0.04560484856484155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.02453338874508132</v>
+        <v>0.01927069441533818</v>
       </c>
       <c r="C4">
-        <v>-0.1679019228562794</v>
+        <v>-0.1427553471498828</v>
       </c>
       <c r="D4">
-        <v>0.03329011045583195</v>
+        <v>0.06537294442775593</v>
       </c>
       <c r="E4">
-        <v>0.05227506450326106</v>
+        <v>-0.004529581025641955</v>
       </c>
       <c r="F4">
-        <v>-0.05781710856325785</v>
+        <v>0.06095199501574455</v>
       </c>
       <c r="G4">
-        <v>0.02481083600243861</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03803323812492631</v>
+      </c>
+      <c r="H4">
+        <v>0.02227551318170458</v>
+      </c>
+      <c r="I4">
+        <v>0.07759834979088771</v>
+      </c>
+      <c r="J4">
+        <v>-0.07125453246972045</v>
+      </c>
+      <c r="K4">
+        <v>0.02397602714566712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02779469677619983</v>
+        <v>0.03970322287012679</v>
       </c>
       <c r="C6">
-        <v>-0.07548781057539522</v>
+        <v>-0.08690111682282464</v>
       </c>
       <c r="D6">
-        <v>0.0540245804685074</v>
+        <v>0.02886847350644267</v>
       </c>
       <c r="E6">
-        <v>0.05720738304300489</v>
+        <v>-0.01590422788994806</v>
       </c>
       <c r="F6">
-        <v>0.009979282818962367</v>
+        <v>-0.03293501546690403</v>
       </c>
       <c r="G6">
-        <v>0.05277330380402527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.03999313732201768</v>
+      </c>
+      <c r="H6">
+        <v>0.05646135331253201</v>
+      </c>
+      <c r="I6">
+        <v>0.04854990777132594</v>
+      </c>
+      <c r="J6">
+        <v>0.03616602724778104</v>
+      </c>
+      <c r="K6">
+        <v>-0.01948592394797491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.01318080272629646</v>
+        <v>0.01920722767288845</v>
       </c>
       <c r="C7">
-        <v>-0.07350154229560539</v>
+        <v>-0.06973211451343979</v>
       </c>
       <c r="D7">
-        <v>0.03774932705188377</v>
+        <v>0.0326291136893633</v>
       </c>
       <c r="E7">
-        <v>0.0116954058088729</v>
+        <v>-0.005090203456899195</v>
       </c>
       <c r="F7">
-        <v>-0.0189117236425311</v>
+        <v>0.01490759009541276</v>
       </c>
       <c r="G7">
-        <v>0.04474718769088571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.008063053312385776</v>
+      </c>
+      <c r="H7">
+        <v>0.030088212849483</v>
+      </c>
+      <c r="I7">
+        <v>0.07102005377737493</v>
+      </c>
+      <c r="J7">
+        <v>-0.07948104741147399</v>
+      </c>
+      <c r="K7">
+        <v>-0.02827786213421046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.009087374416601263</v>
+        <v>0.001624988658093031</v>
       </c>
       <c r="C8">
-        <v>-0.07051021744329114</v>
+        <v>-0.06050620985991716</v>
       </c>
       <c r="D8">
-        <v>0.03570755287854149</v>
+        <v>0.04845831682711949</v>
       </c>
       <c r="E8">
-        <v>0.07016612846119016</v>
+        <v>-0.04940567615379148</v>
       </c>
       <c r="F8">
-        <v>-0.01266556262214653</v>
+        <v>0.01192263879575486</v>
       </c>
       <c r="G8">
-        <v>-0.01261715592942368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05601081680691862</v>
+      </c>
+      <c r="H8">
+        <v>-0.009449831291134117</v>
+      </c>
+      <c r="I8">
+        <v>0.05774896936635644</v>
+      </c>
+      <c r="J8">
+        <v>-0.003860926229177438</v>
+      </c>
+      <c r="K8">
+        <v>0.002545745910708282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01489128453401253</v>
+        <v>0.01365262185057254</v>
       </c>
       <c r="C9">
-        <v>-0.1198503927363141</v>
+        <v>-0.1001516753852335</v>
       </c>
       <c r="D9">
-        <v>0.04722383085137123</v>
+        <v>0.04049640381583224</v>
       </c>
       <c r="E9">
-        <v>0.01170788230214851</v>
+        <v>0.01653922697710376</v>
       </c>
       <c r="F9">
-        <v>-0.0009140666945412654</v>
+        <v>0.03304653667707335</v>
       </c>
       <c r="G9">
-        <v>0.02554132165643596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02651341175149993</v>
+      </c>
+      <c r="H9">
+        <v>0.005936071993989521</v>
+      </c>
+      <c r="I9">
+        <v>0.07984272063215184</v>
+      </c>
+      <c r="J9">
+        <v>-0.07910714754614015</v>
+      </c>
+      <c r="K9">
+        <v>-0.009890570060347352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2605478007309589</v>
+        <v>0.2469760952463582</v>
       </c>
       <c r="C10">
-        <v>0.08817602742061294</v>
+        <v>0.09836239985119281</v>
       </c>
       <c r="D10">
-        <v>-0.02782947921947498</v>
+        <v>-0.003871014348080921</v>
       </c>
       <c r="E10">
-        <v>-0.03167949746349583</v>
+        <v>-0.05499595018072301</v>
       </c>
       <c r="F10">
-        <v>-0.01865232760986707</v>
+        <v>-0.02265707095830125</v>
       </c>
       <c r="G10">
-        <v>-0.003131969531571359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.005499578166008823</v>
+      </c>
+      <c r="H10">
+        <v>0.03304706596325246</v>
+      </c>
+      <c r="I10">
+        <v>0.04517904835781289</v>
+      </c>
+      <c r="J10">
+        <v>-0.009933895773185023</v>
+      </c>
+      <c r="K10">
+        <v>0.131806354241896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.008268820947745212</v>
+        <v>0.01728074358049722</v>
       </c>
       <c r="C11">
-        <v>-0.06737093104738394</v>
+        <v>-0.07801573905210767</v>
       </c>
       <c r="D11">
-        <v>0.02838165847026205</v>
+        <v>0.03776986748195416</v>
       </c>
       <c r="E11">
-        <v>-0.022541032606644</v>
+        <v>0.009891821251254639</v>
       </c>
       <c r="F11">
-        <v>-0.008413061514615423</v>
+        <v>0.005538950388210603</v>
       </c>
       <c r="G11">
-        <v>0.03648331901449586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01184910111773816</v>
+      </c>
+      <c r="H11">
+        <v>0.008216135720705283</v>
+      </c>
+      <c r="I11">
+        <v>0.02744375947057794</v>
+      </c>
+      <c r="J11">
+        <v>-0.02246425948681224</v>
+      </c>
+      <c r="K11">
+        <v>-0.02559228795643365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.006445155388662943</v>
+        <v>0.01701182565623042</v>
       </c>
       <c r="C12">
-        <v>-0.04485475113116485</v>
+        <v>-0.05238641212798576</v>
       </c>
       <c r="D12">
-        <v>0.0366236260902474</v>
+        <v>0.02620697732981383</v>
       </c>
       <c r="E12">
-        <v>-0.01516588286235813</v>
+        <v>0.01237530924440243</v>
       </c>
       <c r="F12">
-        <v>0.02129654261408496</v>
+        <v>-0.01407545809693779</v>
       </c>
       <c r="G12">
-        <v>0.04100461725582535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001029767188171345</v>
+      </c>
+      <c r="H12">
+        <v>0.02353393911363798</v>
+      </c>
+      <c r="I12">
+        <v>0.03057423786301644</v>
+      </c>
+      <c r="J12">
+        <v>-0.0129841063507941</v>
+      </c>
+      <c r="K12">
+        <v>-0.008691959893611786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01351603973200508</v>
+        <v>0.004479274131112388</v>
       </c>
       <c r="C13">
-        <v>-0.1240077638752348</v>
+        <v>-0.1108924230547707</v>
       </c>
       <c r="D13">
-        <v>0.07972362169891639</v>
+        <v>0.04172581076974693</v>
       </c>
       <c r="E13">
-        <v>0.05227492472714644</v>
+        <v>-0.009205233004643432</v>
       </c>
       <c r="F13">
-        <v>0.08250849591817584</v>
+        <v>-0.04419610640186244</v>
       </c>
       <c r="G13">
-        <v>0.110673257991627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1555441203121853</v>
+      </c>
+      <c r="H13">
+        <v>0.1158304586503524</v>
+      </c>
+      <c r="I13">
+        <v>0.03012351291218093</v>
+      </c>
+      <c r="J13">
+        <v>-0.2193914684100677</v>
+      </c>
+      <c r="K13">
+        <v>0.09821364164273097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01146936205814699</v>
+        <v>0.02082449846101009</v>
       </c>
       <c r="C14">
-        <v>-0.07732512021275788</v>
+        <v>-0.07288845257402889</v>
       </c>
       <c r="D14">
-        <v>0.04229482429049228</v>
+        <v>0.04746307657564663</v>
       </c>
       <c r="E14">
-        <v>0.02589588998666515</v>
+        <v>0.0007421275990392599</v>
       </c>
       <c r="F14">
-        <v>0.04416318510392191</v>
+        <v>-0.03470080035263223</v>
       </c>
       <c r="G14">
-        <v>0.0600836891384362</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02284266870011129</v>
+      </c>
+      <c r="H14">
+        <v>0.09905978326237126</v>
+      </c>
+      <c r="I14">
+        <v>0.158023726322162</v>
+      </c>
+      <c r="J14">
+        <v>-0.1067301623142274</v>
+      </c>
+      <c r="K14">
+        <v>-0.03784631071396197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.01029998664811836</v>
+        <v>0.004416424480450954</v>
       </c>
       <c r="C15">
-        <v>-0.07154499243450591</v>
+        <v>-0.07020867425619189</v>
       </c>
       <c r="D15">
-        <v>0.0276520630658754</v>
+        <v>0.03005693265251954</v>
       </c>
       <c r="E15">
-        <v>0.04398146206256353</v>
+        <v>-0.01581719242508125</v>
       </c>
       <c r="F15">
-        <v>-0.01662613835577665</v>
+        <v>0.02468706859191667</v>
       </c>
       <c r="G15">
-        <v>0.02136015453270497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02051000388423934</v>
+      </c>
+      <c r="H15">
+        <v>0.02385991988590864</v>
+      </c>
+      <c r="I15">
+        <v>0.06801205506623181</v>
+      </c>
+      <c r="J15">
+        <v>-0.03571240738442565</v>
+      </c>
+      <c r="K15">
+        <v>-0.03659980591118964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01038208481607608</v>
+        <v>0.01658875947124226</v>
       </c>
       <c r="C16">
-        <v>-0.05554423242832499</v>
+        <v>-0.06021227016488938</v>
       </c>
       <c r="D16">
-        <v>0.02628082821955597</v>
+        <v>0.02673776645260511</v>
       </c>
       <c r="E16">
-        <v>-0.0167802320623938</v>
+        <v>0.01394941003593756</v>
       </c>
       <c r="F16">
-        <v>0.004708159609062384</v>
+        <v>0.004473517464559156</v>
       </c>
       <c r="G16">
-        <v>0.01968656593740757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005665948903983586</v>
+      </c>
+      <c r="H16">
+        <v>0.007597647988995832</v>
+      </c>
+      <c r="I16">
+        <v>0.02102536239298465</v>
+      </c>
+      <c r="J16">
+        <v>-0.01297489170093383</v>
+      </c>
+      <c r="K16">
+        <v>-0.01652857266779115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01342600145537535</v>
+        <v>0.01580671725454958</v>
       </c>
       <c r="C20">
-        <v>-0.09257641322677769</v>
+        <v>-0.08371569311396232</v>
       </c>
       <c r="D20">
-        <v>0.04059996558307282</v>
+        <v>0.02673523722192912</v>
       </c>
       <c r="E20">
-        <v>-0.03376228189829344</v>
+        <v>-0.01040946214995785</v>
       </c>
       <c r="F20">
-        <v>0.01251410692932155</v>
+        <v>0.01500023321725786</v>
       </c>
       <c r="G20">
-        <v>0.07934393234650923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.02011209980138376</v>
+      </c>
+      <c r="H20">
+        <v>0.037324480547892</v>
+      </c>
+      <c r="I20">
+        <v>0.0687062099432556</v>
+      </c>
+      <c r="J20">
+        <v>-0.03166710285223017</v>
+      </c>
+      <c r="K20">
+        <v>-0.01299120115795387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.002089021873926496</v>
+        <v>0.01412362663777766</v>
       </c>
       <c r="C21">
-        <v>-0.08257571020042462</v>
+        <v>-0.06904390358189096</v>
       </c>
       <c r="D21">
-        <v>-0.0196578227587303</v>
+        <v>0.01904250246741586</v>
       </c>
       <c r="E21">
-        <v>0.04341240302926075</v>
+        <v>-0.01033907068834013</v>
       </c>
       <c r="F21">
-        <v>0.08637331543646623</v>
+        <v>-0.07558012157031505</v>
       </c>
       <c r="G21">
-        <v>0.005593288476077307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.06256561363642386</v>
+      </c>
+      <c r="H21">
+        <v>0.02691056925569097</v>
+      </c>
+      <c r="I21">
+        <v>0.09965783696610486</v>
+      </c>
+      <c r="J21">
+        <v>-0.1024822192169222</v>
+      </c>
+      <c r="K21">
+        <v>-0.005507152822004973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01752946804524241</v>
+        <v>0.007858906862351545</v>
       </c>
       <c r="C22">
-        <v>-0.2293758354023761</v>
+        <v>-0.1698681016476078</v>
       </c>
       <c r="D22">
-        <v>-0.09427187723604739</v>
+        <v>0.01960948147494767</v>
       </c>
       <c r="E22">
-        <v>0.3326303310026581</v>
+        <v>-0.1325010483955028</v>
       </c>
       <c r="F22">
-        <v>-0.3060001129484024</v>
+        <v>0.3128538682327629</v>
       </c>
       <c r="G22">
-        <v>0.02962128283866959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.3999010745266751</v>
+      </c>
+      <c r="H22">
+        <v>-0.008198795286162233</v>
+      </c>
+      <c r="I22">
+        <v>-0.2879875186334883</v>
+      </c>
+      <c r="J22">
+        <v>0.1650894429668953</v>
+      </c>
+      <c r="K22">
+        <v>-0.02890374236153254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01841501238138756</v>
+        <v>0.01300501250895802</v>
       </c>
       <c r="C23">
-        <v>-0.2330774708654678</v>
+        <v>-0.1731943794291214</v>
       </c>
       <c r="D23">
-        <v>-0.09907475896031526</v>
+        <v>0.01912964438651124</v>
       </c>
       <c r="E23">
-        <v>0.3269619956648024</v>
+        <v>-0.1249962074180111</v>
       </c>
       <c r="F23">
-        <v>-0.3018368215353865</v>
+        <v>0.3047201703357896</v>
       </c>
       <c r="G23">
-        <v>0.02806214199112828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.3902229929655239</v>
+      </c>
+      <c r="H23">
+        <v>-0.006843303100890749</v>
+      </c>
+      <c r="I23">
+        <v>-0.2688161321087245</v>
+      </c>
+      <c r="J23">
+        <v>0.1523456590912743</v>
+      </c>
+      <c r="K23">
+        <v>-0.03284521382955778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.008659503971046653</v>
+        <v>0.01708025385045226</v>
       </c>
       <c r="C24">
-        <v>-0.05903970974396936</v>
+        <v>-0.06318398476636927</v>
       </c>
       <c r="D24">
-        <v>0.04288892714948554</v>
+        <v>0.04015244814776171</v>
       </c>
       <c r="E24">
-        <v>-0.01422803461247161</v>
+        <v>0.01117382294222515</v>
       </c>
       <c r="F24">
-        <v>0.0006320249385374808</v>
+        <v>0.007069737579358946</v>
       </c>
       <c r="G24">
-        <v>0.04850567000765261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.006074827955614161</v>
+      </c>
+      <c r="H24">
+        <v>0.02077293312646111</v>
+      </c>
+      <c r="I24">
+        <v>0.0339328150104662</v>
+      </c>
+      <c r="J24">
+        <v>-0.02984749665846429</v>
+      </c>
+      <c r="K24">
+        <v>-0.0236454679398123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.008385522792591906</v>
+        <v>0.02124500444291636</v>
       </c>
       <c r="C25">
-        <v>-0.06507178040677417</v>
+        <v>-0.06665621686047092</v>
       </c>
       <c r="D25">
-        <v>0.02062692037844969</v>
+        <v>0.0324738364328182</v>
       </c>
       <c r="E25">
-        <v>-0.02007457415778911</v>
+        <v>0.01464882297858567</v>
       </c>
       <c r="F25">
-        <v>0.005625935029948775</v>
+        <v>0.01035676887200026</v>
       </c>
       <c r="G25">
-        <v>0.04553317440752742</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003477672296100445</v>
+      </c>
+      <c r="H25">
+        <v>0.01283205135803061</v>
+      </c>
+      <c r="I25">
+        <v>0.03300607636874602</v>
+      </c>
+      <c r="J25">
+        <v>-0.02685376944152543</v>
+      </c>
+      <c r="K25">
+        <v>-0.01146180237713001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.009089936048693893</v>
+        <v>0.02260434018709721</v>
       </c>
       <c r="C26">
-        <v>-0.05241074037095123</v>
+        <v>-0.05447312053608335</v>
       </c>
       <c r="D26">
-        <v>0.07808570979375049</v>
+        <v>0.06203998185906422</v>
       </c>
       <c r="E26">
-        <v>-0.006063351284265337</v>
+        <v>0.01219151879196968</v>
       </c>
       <c r="F26">
-        <v>0.0377465205794007</v>
+        <v>0.01134935374398034</v>
       </c>
       <c r="G26">
-        <v>0.04969719436179656</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01016639659399185</v>
+      </c>
+      <c r="H26">
+        <v>-0.003580567673529257</v>
+      </c>
+      <c r="I26">
+        <v>0.07807016534140979</v>
+      </c>
+      <c r="J26">
+        <v>-0.09619433506026384</v>
+      </c>
+      <c r="K26">
+        <v>-0.05063316071514671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3616666626020053</v>
+        <v>0.3099672756821613</v>
       </c>
       <c r="C28">
-        <v>0.0977316308271943</v>
+        <v>0.1145535677395787</v>
       </c>
       <c r="D28">
-        <v>-0.02312469602659721</v>
+        <v>-0.03251375024485912</v>
       </c>
       <c r="E28">
-        <v>-0.04642341946849106</v>
+        <v>-0.01975536797419008</v>
       </c>
       <c r="F28">
-        <v>0.03925309484646942</v>
+        <v>0.007254612762029927</v>
       </c>
       <c r="G28">
-        <v>-0.1017834677681719</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.04481810356512702</v>
+      </c>
+      <c r="H28">
+        <v>-0.1118192387490823</v>
+      </c>
+      <c r="I28">
+        <v>0.04519960396463026</v>
+      </c>
+      <c r="J28">
+        <v>-0.05014763138590344</v>
+      </c>
+      <c r="K28">
+        <v>0.2137394526038964</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.0114785125682636</v>
+        <v>0.01706475366666051</v>
       </c>
       <c r="C29">
-        <v>-0.08298110469747243</v>
+        <v>-0.08231501124422896</v>
       </c>
       <c r="D29">
-        <v>0.04744766402374439</v>
+        <v>0.04863589173339831</v>
       </c>
       <c r="E29">
-        <v>0.005610591988949806</v>
+        <v>0.02132001175125519</v>
       </c>
       <c r="F29">
-        <v>0.05239684852695274</v>
+        <v>-0.03012171006179604</v>
       </c>
       <c r="G29">
-        <v>0.08985765709150802</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02565199048958318</v>
+      </c>
+      <c r="H29">
+        <v>0.1523986756208254</v>
+      </c>
+      <c r="I29">
+        <v>0.2183258176450281</v>
+      </c>
+      <c r="J29">
+        <v>-0.1507396238596364</v>
+      </c>
+      <c r="K29">
+        <v>-0.03707221944124161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02935204049738014</v>
+        <v>0.03434562454756419</v>
       </c>
       <c r="C30">
-        <v>-0.1690327703539357</v>
+        <v>-0.1448589681993871</v>
       </c>
       <c r="D30">
-        <v>0.06255919284176019</v>
+        <v>0.05531430852544313</v>
       </c>
       <c r="E30">
-        <v>0.04217935565645732</v>
+        <v>-0.02670250142939792</v>
       </c>
       <c r="F30">
-        <v>-0.04845352400905469</v>
+        <v>0.03578347711818449</v>
       </c>
       <c r="G30">
-        <v>0.03901475044787065</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0374255638520704</v>
+      </c>
+      <c r="H30">
+        <v>0.0146467088538469</v>
+      </c>
+      <c r="I30">
+        <v>0.04245355487187658</v>
+      </c>
+      <c r="J30">
+        <v>-0.001785885607058132</v>
+      </c>
+      <c r="K30">
+        <v>-0.03916439399482204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.001731507898916668</v>
+        <v>0.01498775873595522</v>
       </c>
       <c r="C31">
-        <v>-0.05085560360942167</v>
+        <v>-0.0761544247471211</v>
       </c>
       <c r="D31">
-        <v>0.03406224351550432</v>
+        <v>0.0410691807783522</v>
       </c>
       <c r="E31">
-        <v>-0.01763138568997201</v>
+        <v>-0.0007440380908535845</v>
       </c>
       <c r="F31">
-        <v>0.007887389541940806</v>
+        <v>0.005728426713095329</v>
       </c>
       <c r="G31">
-        <v>0.0034927446365837</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.003460414319281894</v>
+      </c>
+      <c r="H31">
+        <v>-0.02192002740951144</v>
+      </c>
+      <c r="I31">
+        <v>0.03627308989886615</v>
+      </c>
+      <c r="J31">
+        <v>-0.02087882631554769</v>
+      </c>
+      <c r="K31">
+        <v>-0.006920573231611395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01767943735652766</v>
+        <v>0.02235087754982434</v>
       </c>
       <c r="C32">
-        <v>-0.07209182557197776</v>
+        <v>-0.0524412811688412</v>
       </c>
       <c r="D32">
-        <v>0.0004575050206466798</v>
+        <v>0.02461845760464151</v>
       </c>
       <c r="E32">
-        <v>0.1483315330324922</v>
+        <v>0.008283717036529968</v>
       </c>
       <c r="F32">
-        <v>0.02060896540777604</v>
+        <v>-4.190045576892399e-05</v>
       </c>
       <c r="G32">
-        <v>0.08639254039078847</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.1171564528658119</v>
+      </c>
+      <c r="H32">
+        <v>0.07903315428080422</v>
+      </c>
+      <c r="I32">
+        <v>0.1062082587060476</v>
+      </c>
+      <c r="J32">
+        <v>-0.1479801372903503</v>
+      </c>
+      <c r="K32">
+        <v>0.2441051635964782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01513642004737651</v>
+        <v>0.01738230852770157</v>
       </c>
       <c r="C33">
-        <v>-0.09462375866022699</v>
+        <v>-0.1021413202790831</v>
       </c>
       <c r="D33">
-        <v>0.06482649898439279</v>
+        <v>0.05206305546250922</v>
       </c>
       <c r="E33">
-        <v>0.007824155172400211</v>
+        <v>-0.009333514426907106</v>
       </c>
       <c r="F33">
-        <v>0.01397394002344729</v>
+        <v>0.01868569732305493</v>
       </c>
       <c r="G33">
-        <v>0.03945458146130468</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01219839090212144</v>
+      </c>
+      <c r="H33">
+        <v>0.02924572594191404</v>
+      </c>
+      <c r="I33">
+        <v>0.04396046740548428</v>
+      </c>
+      <c r="J33">
+        <v>-0.04625090831510151</v>
+      </c>
+      <c r="K33">
+        <v>0.01832760495827201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005761216571183773</v>
+        <v>0.01762627540119853</v>
       </c>
       <c r="C34">
-        <v>-0.05210521005780129</v>
+        <v>-0.04938174340467301</v>
       </c>
       <c r="D34">
-        <v>0.02175264740477938</v>
+        <v>0.02109549316654457</v>
       </c>
       <c r="E34">
-        <v>-0.006478225482144504</v>
+        <v>0.01355608007468034</v>
       </c>
       <c r="F34">
-        <v>0.02249240177114231</v>
+        <v>-0.003455333472180618</v>
       </c>
       <c r="G34">
-        <v>0.02800852393280475</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.006333023842822141</v>
+      </c>
+      <c r="H34">
+        <v>0.02069615456840814</v>
+      </c>
+      <c r="I34">
+        <v>0.0237559781914802</v>
+      </c>
+      <c r="J34">
+        <v>0.01379350499292971</v>
+      </c>
+      <c r="K34">
+        <v>-0.0110991318130188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.004088586145529679</v>
+        <v>0.01040850910137234</v>
       </c>
       <c r="C35">
-        <v>-0.0304110763220973</v>
+        <v>-0.04603549850791503</v>
       </c>
       <c r="D35">
-        <v>0.008613046889594397</v>
+        <v>0.02221342154528729</v>
       </c>
       <c r="E35">
-        <v>0.002812007521899964</v>
+        <v>-0.00387037562624911</v>
       </c>
       <c r="F35">
-        <v>0.01619279753714545</v>
+        <v>-0.006168295673310501</v>
       </c>
       <c r="G35">
-        <v>0.03480545454856279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.01215086998822347</v>
+      </c>
+      <c r="H35">
+        <v>0.06434710950652396</v>
+      </c>
+      <c r="I35">
+        <v>0.130862283625923</v>
+      </c>
+      <c r="J35">
+        <v>-0.06934168390902128</v>
+      </c>
+      <c r="K35">
+        <v>-0.002926471484156316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01065127912852664</v>
+        <v>0.01390079779978192</v>
       </c>
       <c r="C36">
-        <v>-0.05336109336473167</v>
+        <v>-0.04580677392615595</v>
       </c>
       <c r="D36">
-        <v>0.05613914279260743</v>
+        <v>0.04407366180633136</v>
       </c>
       <c r="E36">
-        <v>-0.003996199656402954</v>
+        <v>-0.007313571158732457</v>
       </c>
       <c r="F36">
-        <v>0.01644772039423988</v>
+        <v>0.01067658709693379</v>
       </c>
       <c r="G36">
-        <v>0.03139336416489118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01060651887956011</v>
+      </c>
+      <c r="H36">
+        <v>-0.002583284182866869</v>
+      </c>
+      <c r="I36">
+        <v>0.05954174436344051</v>
+      </c>
+      <c r="J36">
+        <v>-0.07221282043470766</v>
+      </c>
+      <c r="K36">
+        <v>-0.01474330776220385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03471195827613538</v>
+        <v>0.01018836253115573</v>
       </c>
       <c r="C38">
-        <v>-0.05023311074011241</v>
+        <v>-0.05863001060390757</v>
       </c>
       <c r="D38">
-        <v>0.04299525196959727</v>
+        <v>0.03743576593535562</v>
       </c>
       <c r="E38">
-        <v>-0.01182668685029865</v>
+        <v>-0.04460789386509834</v>
       </c>
       <c r="F38">
-        <v>0.02247262842683981</v>
+        <v>0.02105526978271945</v>
       </c>
       <c r="G38">
-        <v>0.04351153417456909</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.006611633217672569</v>
+      </c>
+      <c r="H38">
+        <v>0.02238224377026895</v>
+      </c>
+      <c r="I38">
+        <v>0.0531375065645816</v>
+      </c>
+      <c r="J38">
+        <v>-0.05135561538625629</v>
+      </c>
+      <c r="K38">
+        <v>0.06640049205028786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.007800629705384249</v>
+        <v>0.02484160254976589</v>
       </c>
       <c r="C39">
-        <v>-0.1291764976312973</v>
+        <v>-0.1312793197348087</v>
       </c>
       <c r="D39">
-        <v>0.05749973221636924</v>
+        <v>0.05918981926665215</v>
       </c>
       <c r="E39">
-        <v>-0.01016148689080287</v>
+        <v>-0.00788592318681422</v>
       </c>
       <c r="F39">
-        <v>0.022290905700386</v>
+        <v>-0.01626234316558999</v>
       </c>
       <c r="G39">
-        <v>0.06309848158196406</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.007222923679661908</v>
+      </c>
+      <c r="H39">
+        <v>0.04295459327254139</v>
+      </c>
+      <c r="I39">
+        <v>0.0455131765308792</v>
+      </c>
+      <c r="J39">
+        <v>0.0006788403627133855</v>
+      </c>
+      <c r="K39">
+        <v>-0.08888405383663874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.009582925617751715</v>
+        <v>0.01469827903272233</v>
       </c>
       <c r="C40">
-        <v>-0.04027798184709513</v>
+        <v>-0.05923872422378321</v>
       </c>
       <c r="D40">
-        <v>0.03605443321442731</v>
+        <v>0.04464164201344185</v>
       </c>
       <c r="E40">
-        <v>0.1060932282686036</v>
+        <v>-0.002385150346800699</v>
       </c>
       <c r="F40">
-        <v>-0.05132328268445056</v>
+        <v>-0.01033294076148214</v>
       </c>
       <c r="G40">
-        <v>0.1102651728940212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03192526068034625</v>
+      </c>
+      <c r="H40">
+        <v>0.150067971735066</v>
+      </c>
+      <c r="I40">
+        <v>0.01584940694034697</v>
+      </c>
+      <c r="J40">
+        <v>-0.02686649830815455</v>
+      </c>
+      <c r="K40">
+        <v>-0.06336706234405044</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01331474697415988</v>
+        <v>0.02212350606406804</v>
       </c>
       <c r="C41">
-        <v>-0.02727353499250548</v>
+        <v>-0.04725554090284955</v>
       </c>
       <c r="D41">
-        <v>0.008114528822211415</v>
+        <v>0.01435397144158266</v>
       </c>
       <c r="E41">
-        <v>-0.007747205718231147</v>
+        <v>0.006328342569295148</v>
       </c>
       <c r="F41">
-        <v>0.007689280896540901</v>
+        <v>-0.005871513372799812</v>
       </c>
       <c r="G41">
-        <v>-0.04733887238065555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01314795552387433</v>
+      </c>
+      <c r="H41">
+        <v>-0.004817709304351721</v>
+      </c>
+      <c r="I41">
+        <v>0.01531472982933719</v>
+      </c>
+      <c r="J41">
+        <v>-0.02489792350534398</v>
+      </c>
+      <c r="K41">
+        <v>0.02614198887201932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.007902960446541063</v>
+        <v>0.01928503616110353</v>
       </c>
       <c r="C43">
-        <v>-0.02831617502765506</v>
+        <v>-0.04479453200562106</v>
       </c>
       <c r="D43">
-        <v>0.02558168338183356</v>
+        <v>0.02906478916707984</v>
       </c>
       <c r="E43">
-        <v>-0.005605727163389104</v>
+        <v>-0.002787520124825945</v>
       </c>
       <c r="F43">
-        <v>0.001768638331362631</v>
+        <v>0.004660098222166525</v>
       </c>
       <c r="G43">
-        <v>-0.009146349329552789</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01184141134436528</v>
+      </c>
+      <c r="H43">
+        <v>0.004737971332301348</v>
+      </c>
+      <c r="I43">
+        <v>0.02588776857111361</v>
+      </c>
+      <c r="J43">
+        <v>-0.02888602639752083</v>
+      </c>
+      <c r="K43">
+        <v>-0.003389507697325214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02457693980545323</v>
+        <v>0.0170837532220003</v>
       </c>
       <c r="C44">
-        <v>-0.1010228440133695</v>
+        <v>-0.09875780080489867</v>
       </c>
       <c r="D44">
-        <v>0.03200650455658163</v>
+        <v>0.05760488551875075</v>
       </c>
       <c r="E44">
-        <v>0.02139365008374424</v>
+        <v>-0.04323639333865992</v>
       </c>
       <c r="F44">
-        <v>-0.01141653032245982</v>
+        <v>0.04551948376011861</v>
       </c>
       <c r="G44">
-        <v>0.07311819122391849</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0351974847113687</v>
+      </c>
+      <c r="H44">
+        <v>0.04979752631285182</v>
+      </c>
+      <c r="I44">
+        <v>0.02172909614552854</v>
+      </c>
+      <c r="J44">
+        <v>-0.04249382260869623</v>
+      </c>
+      <c r="K44">
+        <v>-0.0503925874741469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.002358885800226335</v>
+        <v>0.005061673338850331</v>
       </c>
       <c r="C46">
-        <v>-0.06266412408012687</v>
+        <v>-0.06465596012784705</v>
       </c>
       <c r="D46">
-        <v>0.04573892523324714</v>
+        <v>0.028853215899626</v>
       </c>
       <c r="E46">
-        <v>0.01562869951973477</v>
+        <v>-0.001833133089171971</v>
       </c>
       <c r="F46">
-        <v>0.0257933614088891</v>
+        <v>-0.01078365872905339</v>
       </c>
       <c r="G46">
-        <v>0.02884262665258769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.00112031189638496</v>
+      </c>
+      <c r="H46">
+        <v>0.03731889282177814</v>
+      </c>
+      <c r="I46">
+        <v>0.06019200584194578</v>
+      </c>
+      <c r="J46">
+        <v>-0.07534575175408954</v>
+      </c>
+      <c r="K46">
+        <v>-0.0232868787574018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.007641467271476295</v>
+        <v>0.02237614268149436</v>
       </c>
       <c r="C47">
-        <v>-0.05771087326680312</v>
+        <v>-0.07267645542055896</v>
       </c>
       <c r="D47">
-        <v>0.05677397563525744</v>
+        <v>0.04348892356298487</v>
       </c>
       <c r="E47">
-        <v>-0.01941355744017214</v>
+        <v>0.01468410139089563</v>
       </c>
       <c r="F47">
-        <v>0.05208979905226337</v>
+        <v>-0.003191286076629913</v>
       </c>
       <c r="G47">
-        <v>0.007699927382108905</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008203396835699392</v>
+      </c>
+      <c r="H47">
+        <v>0.008152716323650683</v>
+      </c>
+      <c r="I47">
+        <v>0.05283266351106033</v>
+      </c>
+      <c r="J47">
+        <v>-0.0535984585572866</v>
+      </c>
+      <c r="K47">
+        <v>0.01588989230384603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.007176154954824689</v>
+        <v>0.01647695002565821</v>
       </c>
       <c r="C48">
-        <v>-0.05653966969462654</v>
+        <v>-0.04512602734737921</v>
       </c>
       <c r="D48">
-        <v>0.06399311436039661</v>
+        <v>0.0528357578019458</v>
       </c>
       <c r="E48">
-        <v>-0.009052134555206603</v>
+        <v>0.01217887199529397</v>
       </c>
       <c r="F48">
-        <v>0.001462267463664219</v>
+        <v>0.02793001596316368</v>
       </c>
       <c r="G48">
-        <v>0.0391370733638115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01102284689318972</v>
+      </c>
+      <c r="H48">
+        <v>-0.004115456858218365</v>
+      </c>
+      <c r="I48">
+        <v>0.08521416267975829</v>
+      </c>
+      <c r="J48">
+        <v>-0.09617610076277594</v>
+      </c>
+      <c r="K48">
+        <v>-0.03100153367877433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02107901857046138</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05079511573693115</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.008629262537835835</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02428606169379996</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.0300993445253894</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.07119281155374939</v>
+      </c>
+      <c r="H49">
+        <v>0.0590992686746673</v>
+      </c>
+      <c r="I49">
+        <v>0.002487226284116936</v>
+      </c>
+      <c r="J49">
+        <v>0.1124885091670391</v>
+      </c>
+      <c r="K49">
+        <v>-0.04555441234710358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0005573552465563349</v>
+        <v>0.01576181710538669</v>
       </c>
       <c r="C50">
-        <v>-0.06173083713379537</v>
+        <v>-0.07543487831004755</v>
       </c>
       <c r="D50">
-        <v>0.02730378820747392</v>
+        <v>0.03238843699373225</v>
       </c>
       <c r="E50">
-        <v>0.001712530456711004</v>
+        <v>0.003160194314059373</v>
       </c>
       <c r="F50">
-        <v>-0.006764690297961925</v>
+        <v>0.0202955330900278</v>
       </c>
       <c r="G50">
-        <v>0.01832719321947117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008432608659592042</v>
+      </c>
+      <c r="H50">
+        <v>-0.002420551911202063</v>
+      </c>
+      <c r="I50">
+        <v>0.06323232036868051</v>
+      </c>
+      <c r="J50">
+        <v>-0.02912946804472673</v>
+      </c>
+      <c r="K50">
+        <v>0.05227651579737824</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.009006179701243443</v>
+        <v>-0.003917717182343501</v>
       </c>
       <c r="C51">
-        <v>-0.07230696820132784</v>
+        <v>-0.03549020256480854</v>
       </c>
       <c r="D51">
-        <v>0.04060172226267792</v>
+        <v>0.02644667756674202</v>
       </c>
       <c r="E51">
-        <v>0.03027053463298611</v>
+        <v>-0.02695228218853591</v>
       </c>
       <c r="F51">
-        <v>0.0017230633867696</v>
+        <v>-0.0008371573923451419</v>
       </c>
       <c r="G51">
-        <v>-0.004542768458440673</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02388207510250383</v>
+      </c>
+      <c r="H51">
+        <v>0.02409059363289163</v>
+      </c>
+      <c r="I51">
+        <v>0.05689438320705406</v>
+      </c>
+      <c r="J51">
+        <v>-0.09281762972409162</v>
+      </c>
+      <c r="K51">
+        <v>-0.03168506009199501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03215847769803539</v>
+        <v>0.06104052336609084</v>
       </c>
       <c r="C53">
-        <v>-0.1143734978952302</v>
+        <v>-0.1313640721465496</v>
       </c>
       <c r="D53">
-        <v>0.06193092699016171</v>
+        <v>0.05691514380864467</v>
       </c>
       <c r="E53">
-        <v>-0.1161766512353464</v>
+        <v>0.03857649775382716</v>
       </c>
       <c r="F53">
-        <v>0.01811697823859115</v>
+        <v>-0.03790738212473184</v>
       </c>
       <c r="G53">
-        <v>-0.1027376739118816</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04057456009537396</v>
+      </c>
+      <c r="H53">
+        <v>-0.09079864986108015</v>
+      </c>
+      <c r="I53">
+        <v>-0.01492728888081234</v>
+      </c>
+      <c r="J53">
+        <v>0.006420103007937542</v>
+      </c>
+      <c r="K53">
+        <v>0.02155673006756234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.005068964093103003</v>
+        <v>0.01631061162946521</v>
       </c>
       <c r="C54">
-        <v>-0.07274420274850107</v>
+        <v>-0.0714163414940209</v>
       </c>
       <c r="D54">
-        <v>0.01329966361713168</v>
+        <v>0.01211659051864826</v>
       </c>
       <c r="E54">
-        <v>-0.02562255578020928</v>
+        <v>0.0140260953709914</v>
       </c>
       <c r="F54">
-        <v>0.003211410999007203</v>
+        <v>0.003999326928191697</v>
       </c>
       <c r="G54">
-        <v>0.0231577055705278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.003905843071618303</v>
+      </c>
+      <c r="H54">
+        <v>0.01665236337082237</v>
+      </c>
+      <c r="I54">
+        <v>0.04182547467089817</v>
+      </c>
+      <c r="J54">
+        <v>-0.04495384216834442</v>
+      </c>
+      <c r="K54">
+        <v>-0.02596136403153597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01294531550961158</v>
+        <v>0.03100671968544937</v>
       </c>
       <c r="C55">
-        <v>-0.07456271395137935</v>
+        <v>-0.08254104071637121</v>
       </c>
       <c r="D55">
-        <v>0.0583541802187831</v>
+        <v>0.05298578681646829</v>
       </c>
       <c r="E55">
-        <v>-0.05754126829364048</v>
+        <v>0.03488104655995459</v>
       </c>
       <c r="F55">
-        <v>0.01944920325374221</v>
+        <v>-0.01466559886368757</v>
       </c>
       <c r="G55">
-        <v>-0.03349665927226286</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03009476810459647</v>
+      </c>
+      <c r="H55">
+        <v>-0.03931685639081597</v>
+      </c>
+      <c r="I55">
+        <v>-0.007255701407935417</v>
+      </c>
+      <c r="J55">
+        <v>-0.006400604176232332</v>
+      </c>
+      <c r="K55">
+        <v>-0.007216960176767637</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01603177953199758</v>
+        <v>0.04929591029443991</v>
       </c>
       <c r="C56">
-        <v>-0.1483884372343094</v>
+        <v>-0.1539369460807842</v>
       </c>
       <c r="D56">
-        <v>0.06296534517223901</v>
+        <v>0.08028582835447992</v>
       </c>
       <c r="E56">
-        <v>-0.0886457844414076</v>
+        <v>0.08168047176272608</v>
       </c>
       <c r="F56">
-        <v>0.03959934998304173</v>
+        <v>-0.07193771808705685</v>
       </c>
       <c r="G56">
-        <v>-0.14309180792307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0469194911946797</v>
+      </c>
+      <c r="H56">
+        <v>-0.1615160331912109</v>
+      </c>
+      <c r="I56">
+        <v>-0.01014851382772949</v>
+      </c>
+      <c r="J56">
+        <v>0.03282759323303625</v>
+      </c>
+      <c r="K56">
+        <v>0.005565784858216515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03478902919900927</v>
+        <v>0.01909132225296666</v>
       </c>
       <c r="C58">
-        <v>-0.2824016258779009</v>
+        <v>-0.1746649074484132</v>
       </c>
       <c r="D58">
-        <v>-0.03334790099900801</v>
+        <v>0.04400902838744278</v>
       </c>
       <c r="E58">
-        <v>0.1733467351033268</v>
+        <v>-0.2044729130196433</v>
       </c>
       <c r="F58">
-        <v>-0.2288615418100231</v>
+        <v>0.148906713887879</v>
       </c>
       <c r="G58">
-        <v>0.02129051161307187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2563513659654602</v>
+      </c>
+      <c r="H58">
+        <v>-0.07076650402952793</v>
+      </c>
+      <c r="I58">
+        <v>-0.0081314077846317</v>
+      </c>
+      <c r="J58">
+        <v>-0.1619621773356182</v>
+      </c>
+      <c r="K58">
+        <v>0.0983281323241839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2874111452145896</v>
+        <v>0.288176498274698</v>
       </c>
       <c r="C59">
-        <v>0.007575175696842682</v>
+        <v>0.05186342383452865</v>
       </c>
       <c r="D59">
-        <v>-0.01212668156609543</v>
+        <v>-0.006103590354654786</v>
       </c>
       <c r="E59">
-        <v>0.06275212550221179</v>
+        <v>-0.01760712430537469</v>
       </c>
       <c r="F59">
-        <v>0.04259290838930011</v>
+        <v>0.005172625066019705</v>
       </c>
       <c r="G59">
-        <v>-0.003691158117765853</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.05452253924837803</v>
+      </c>
+      <c r="H59">
+        <v>-0.005611820099202526</v>
+      </c>
+      <c r="I59">
+        <v>-0.02015721559296454</v>
+      </c>
+      <c r="J59">
+        <v>-3.763497282976298e-05</v>
+      </c>
+      <c r="K59">
+        <v>0.02778749474511003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1103496151493559</v>
+        <v>0.1526349552238635</v>
       </c>
       <c r="C60">
-        <v>-0.1497134852252008</v>
+        <v>-0.1606902640792792</v>
       </c>
       <c r="D60">
-        <v>0.0895573585852677</v>
+        <v>0.040033770246659</v>
       </c>
       <c r="E60">
-        <v>-0.1214941737678702</v>
+        <v>0.156305230934175</v>
       </c>
       <c r="F60">
-        <v>0.2199749385179423</v>
+        <v>-0.05492947598513363</v>
       </c>
       <c r="G60">
-        <v>0.2216885337812546</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.08575374170063443</v>
+      </c>
+      <c r="H60">
+        <v>0.2272339881945731</v>
+      </c>
+      <c r="I60">
+        <v>-0.2191959506673452</v>
+      </c>
+      <c r="J60">
+        <v>0.1049946827780247</v>
+      </c>
+      <c r="K60">
+        <v>-0.01755532735272882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.008154219504886224</v>
+        <v>0.02506879025361467</v>
       </c>
       <c r="C61">
-        <v>-0.08651425729562603</v>
+        <v>-0.09841726004929054</v>
       </c>
       <c r="D61">
-        <v>0.06869204875271588</v>
+        <v>0.05371375017199247</v>
       </c>
       <c r="E61">
-        <v>-0.02919689326384014</v>
+        <v>0.01607859740779552</v>
       </c>
       <c r="F61">
-        <v>0.03944506861795884</v>
+        <v>-0.01138125310646411</v>
       </c>
       <c r="G61">
-        <v>0.06748239911254324</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02029024887633397</v>
+      </c>
+      <c r="H61">
+        <v>0.0290463676900053</v>
+      </c>
+      <c r="I61">
+        <v>0.06074158211831185</v>
+      </c>
+      <c r="J61">
+        <v>-0.004153907028775324</v>
+      </c>
+      <c r="K61">
+        <v>-0.03435342579806868</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002862894123028483</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01506628517537602</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003133723357226983</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01822971485764301</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.02846315341863948</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01100337548872335</v>
+      </c>
+      <c r="H62">
+        <v>0.01851202601560608</v>
+      </c>
+      <c r="I62">
+        <v>0.01941773118782984</v>
+      </c>
+      <c r="J62">
+        <v>-0.001188826541082453</v>
+      </c>
+      <c r="K62">
+        <v>0.007375424792516075</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.00146340702338255</v>
+        <v>0.0271053329901964</v>
       </c>
       <c r="C63">
-        <v>-0.05897057020472305</v>
+        <v>-0.06370400094977557</v>
       </c>
       <c r="D63">
-        <v>0.03679990421520467</v>
+        <v>0.05881181512459859</v>
       </c>
       <c r="E63">
-        <v>-0.01744220030684139</v>
+        <v>0.01506661810555627</v>
       </c>
       <c r="F63">
-        <v>0.001060099697134503</v>
+        <v>-0.002524994130918931</v>
       </c>
       <c r="G63">
-        <v>-0.003045906914296514</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.004655176515845968</v>
+      </c>
+      <c r="H63">
+        <v>0.001702715497104323</v>
+      </c>
+      <c r="I63">
+        <v>0.06473486653068042</v>
+      </c>
+      <c r="J63">
+        <v>-0.02852762236705925</v>
+      </c>
+      <c r="K63">
+        <v>-0.01486419198344499</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.0005702567220562448</v>
+        <v>0.01801225139907734</v>
       </c>
       <c r="C64">
-        <v>-0.0895287997552988</v>
+        <v>-0.09167807803216912</v>
       </c>
       <c r="D64">
-        <v>0.06900789762206097</v>
+        <v>0.03449654543030846</v>
       </c>
       <c r="E64">
-        <v>-0.009326819865740861</v>
+        <v>0.01854784624469782</v>
       </c>
       <c r="F64">
-        <v>-0.002743465001548671</v>
+        <v>0.05141840041866839</v>
       </c>
       <c r="G64">
-        <v>0.04636098425153367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01389749420487892</v>
+      </c>
+      <c r="H64">
+        <v>0.06019029966156964</v>
+      </c>
+      <c r="I64">
+        <v>0.04219521361485109</v>
+      </c>
+      <c r="J64">
+        <v>-0.02477120141867559</v>
+      </c>
+      <c r="K64">
+        <v>-0.08293954229478254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.01000245820362482</v>
+        <v>0.03314494391489973</v>
       </c>
       <c r="C65">
-        <v>-0.09080980993596309</v>
+        <v>-0.09375056374128718</v>
       </c>
       <c r="D65">
-        <v>0.03593805844618232</v>
+        <v>0.02341625158461044</v>
       </c>
       <c r="E65">
-        <v>0.02030601750678148</v>
+        <v>-0.002327022872267125</v>
       </c>
       <c r="F65">
-        <v>0.02618204459127445</v>
+        <v>0.006140225931214152</v>
       </c>
       <c r="G65">
-        <v>0.07498932830790427</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01168403664441661</v>
+      </c>
+      <c r="H65">
+        <v>0.08679162977667779</v>
+      </c>
+      <c r="I65">
+        <v>-0.01004857608197849</v>
+      </c>
+      <c r="J65">
+        <v>0.004145078751538823</v>
+      </c>
+      <c r="K65">
+        <v>-0.04881468588913039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.006894408644894871</v>
+        <v>0.02222173388602759</v>
       </c>
       <c r="C66">
-        <v>-0.1734141694210931</v>
+        <v>-0.1714934033868672</v>
       </c>
       <c r="D66">
-        <v>0.04803435257075363</v>
+        <v>0.05126664899161159</v>
       </c>
       <c r="E66">
-        <v>0.02566812153037103</v>
+        <v>-0.003794447125514584</v>
       </c>
       <c r="F66">
-        <v>0.03765576579973685</v>
+        <v>-0.01437742072211974</v>
       </c>
       <c r="G66">
-        <v>0.08643690265161884</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.007924906170490803</v>
+      </c>
+      <c r="H66">
+        <v>0.03373005261645307</v>
+      </c>
+      <c r="I66">
+        <v>0.06614321046658811</v>
+      </c>
+      <c r="J66">
+        <v>0.001855549571354102</v>
+      </c>
+      <c r="K66">
+        <v>-0.06219579121845994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03410446184388089</v>
+        <v>0.01973232569891169</v>
       </c>
       <c r="C67">
-        <v>-0.02814548644035018</v>
+        <v>-0.0513056102895588</v>
       </c>
       <c r="D67">
-        <v>0.06130125154554005</v>
+        <v>0.0389245202169893</v>
       </c>
       <c r="E67">
-        <v>-0.04520141284035887</v>
+        <v>-0.0279692457150744</v>
       </c>
       <c r="F67">
-        <v>0.03762881262231987</v>
+        <v>0.002432071223627127</v>
       </c>
       <c r="G67">
-        <v>0.05042689664626526</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03296742610827536</v>
+      </c>
+      <c r="H67">
+        <v>0.04262746954349904</v>
+      </c>
+      <c r="I67">
+        <v>0.01782487650287646</v>
+      </c>
+      <c r="J67">
+        <v>-0.05547833248481377</v>
+      </c>
+      <c r="K67">
+        <v>0.04700073059294276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2947118528914141</v>
+        <v>0.292951931708952</v>
       </c>
       <c r="C68">
-        <v>0.03132530600694019</v>
+        <v>0.07857404852442929</v>
       </c>
       <c r="D68">
-        <v>-8.673343754291826e-05</v>
+        <v>-0.02635370289181466</v>
       </c>
       <c r="E68">
-        <v>0.02694319285561948</v>
+        <v>0.01235851037130614</v>
       </c>
       <c r="F68">
-        <v>0.00346852513176467</v>
+        <v>0.02408818913221224</v>
       </c>
       <c r="G68">
-        <v>0.008055581819922875</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.04037012519037825</v>
+      </c>
+      <c r="H68">
+        <v>-0.0232237704800555</v>
+      </c>
+      <c r="I68">
+        <v>0.02785693112789842</v>
+      </c>
+      <c r="J68">
+        <v>-0.02173667803878426</v>
+      </c>
+      <c r="K68">
+        <v>0.04593229009137931</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01130045970045957</v>
+        <v>0.01059714497068386</v>
       </c>
       <c r="C69">
-        <v>-0.05434938470670896</v>
+        <v>-0.04657223813145186</v>
       </c>
       <c r="D69">
-        <v>0.05650075470380198</v>
+        <v>0.02527653185248858</v>
       </c>
       <c r="E69">
-        <v>-0.03177245523754554</v>
+        <v>-0.003228042797676095</v>
       </c>
       <c r="F69">
-        <v>0.005980083702200021</v>
+        <v>-0.01558804917805554</v>
       </c>
       <c r="G69">
-        <v>0.02035358730103064</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.009140805317004647</v>
+      </c>
+      <c r="H69">
+        <v>0.01755173504802394</v>
+      </c>
+      <c r="I69">
+        <v>0.008990737545434318</v>
+      </c>
+      <c r="J69">
+        <v>-0.03705475638020091</v>
+      </c>
+      <c r="K69">
+        <v>0.02770903564584861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2857932620496027</v>
+        <v>0.2742315420217278</v>
       </c>
       <c r="C71">
-        <v>0.04852024083618729</v>
+        <v>0.08061108421714264</v>
       </c>
       <c r="D71">
-        <v>-0.01488513284405263</v>
+        <v>-0.02195376772404604</v>
       </c>
       <c r="E71">
-        <v>0.0246288191570652</v>
+        <v>-0.02765608872594352</v>
       </c>
       <c r="F71">
-        <v>-0.01741023874303163</v>
+        <v>0.03813009851589783</v>
       </c>
       <c r="G71">
-        <v>0.004586907223549994</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04631333348603166</v>
+      </c>
+      <c r="H71">
+        <v>-0.02069485806422873</v>
+      </c>
+      <c r="I71">
+        <v>0.03339554466736347</v>
+      </c>
+      <c r="J71">
+        <v>-0.05329067875585268</v>
+      </c>
+      <c r="K71">
+        <v>0.1105737560003785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01331759873390696</v>
+        <v>0.05337888145497149</v>
       </c>
       <c r="C72">
-        <v>-0.1508426448007394</v>
+        <v>-0.1383202464904724</v>
       </c>
       <c r="D72">
-        <v>0.07323696576823296</v>
+        <v>0.0495526051577164</v>
       </c>
       <c r="E72">
-        <v>-0.01863975026668424</v>
+        <v>0.06433600017433226</v>
       </c>
       <c r="F72">
-        <v>-0.03448863399344498</v>
+        <v>-0.00165229377178314</v>
       </c>
       <c r="G72">
-        <v>0.1003036663206256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01815918314705467</v>
+      </c>
+      <c r="H72">
+        <v>-0.007082150084208242</v>
+      </c>
+      <c r="I72">
+        <v>0.04726795307475989</v>
+      </c>
+      <c r="J72">
+        <v>-0.02383319585879074</v>
+      </c>
+      <c r="K72">
+        <v>-0.09485189007717093</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.08054269998237591</v>
+        <v>0.1570658633694569</v>
       </c>
       <c r="C73">
-        <v>-0.1158358975208229</v>
+        <v>-0.1970557884314956</v>
       </c>
       <c r="D73">
-        <v>0.1361450620945222</v>
+        <v>0.08346573763824508</v>
       </c>
       <c r="E73">
-        <v>-0.1953777141794363</v>
+        <v>0.1192800571983638</v>
       </c>
       <c r="F73">
-        <v>0.2479303839091644</v>
+        <v>-0.09108682179114196</v>
       </c>
       <c r="G73">
-        <v>0.3101063469425556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1950520388416914</v>
+      </c>
+      <c r="H73">
+        <v>0.354283911453997</v>
+      </c>
+      <c r="I73">
+        <v>-0.300619001594608</v>
+      </c>
+      <c r="J73">
+        <v>0.1088080669005803</v>
+      </c>
+      <c r="K73">
+        <v>0.1435537919803345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01399211244715626</v>
+        <v>0.03890587341586275</v>
       </c>
       <c r="C74">
-        <v>-0.0841424696580579</v>
+        <v>-0.09740785261499638</v>
       </c>
       <c r="D74">
-        <v>0.06808538383704101</v>
+        <v>0.04451563263003796</v>
       </c>
       <c r="E74">
-        <v>-0.06561086218316101</v>
+        <v>0.03641784898424216</v>
       </c>
       <c r="F74">
-        <v>0.02891322485461263</v>
+        <v>0.008537006481452338</v>
       </c>
       <c r="G74">
-        <v>-0.05787481514597633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.02547987778106903</v>
+      </c>
+      <c r="H74">
+        <v>-0.05293779269636006</v>
+      </c>
+      <c r="I74">
+        <v>0.0019959746357711</v>
+      </c>
+      <c r="J74">
+        <v>-0.02801163829535167</v>
+      </c>
+      <c r="K74">
+        <v>-0.01024801995480096</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.04060765416088352</v>
+        <v>0.06348871617975525</v>
       </c>
       <c r="C75">
-        <v>-0.1433678441800774</v>
+        <v>-0.1643543478644253</v>
       </c>
       <c r="D75">
-        <v>0.06901432340203394</v>
+        <v>0.08066793277161693</v>
       </c>
       <c r="E75">
-        <v>-0.1389420890499857</v>
+        <v>0.04505341200079339</v>
       </c>
       <c r="F75">
-        <v>-0.009092618137166792</v>
+        <v>-0.01212887075194191</v>
       </c>
       <c r="G75">
-        <v>-0.1913479132000632</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1000590587079301</v>
+      </c>
+      <c r="H75">
+        <v>-0.2171079857152898</v>
+      </c>
+      <c r="I75">
+        <v>0.02871165016831985</v>
+      </c>
+      <c r="J75">
+        <v>0.02744768650134918</v>
+      </c>
+      <c r="K75">
+        <v>0.1189180025117699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01592670013716542</v>
+        <v>0.04575064795891245</v>
       </c>
       <c r="C76">
-        <v>-0.1070625705330147</v>
+        <v>-0.125927149346653</v>
       </c>
       <c r="D76">
-        <v>0.05888917470013909</v>
+        <v>0.0739061927804741</v>
       </c>
       <c r="E76">
-        <v>-0.08438326677573206</v>
+        <v>0.03144031377014091</v>
       </c>
       <c r="F76">
-        <v>0.03452568940096794</v>
+        <v>-0.04639116195186997</v>
       </c>
       <c r="G76">
-        <v>-0.07196823799454262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.06528361976550517</v>
+      </c>
+      <c r="H76">
+        <v>-0.08005436964439588</v>
+      </c>
+      <c r="I76">
+        <v>0.009183205803657951</v>
+      </c>
+      <c r="J76">
+        <v>0.037983658340953</v>
+      </c>
+      <c r="K76">
+        <v>-0.02443303086907741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09605183767190641</v>
+        <v>0.05568736990691154</v>
       </c>
       <c r="C77">
-        <v>-0.350898405052801</v>
+        <v>-0.3991440544756388</v>
       </c>
       <c r="D77">
-        <v>-0.8404900408249185</v>
+        <v>-0.9000358210891749</v>
       </c>
       <c r="E77">
-        <v>-0.300421092367063</v>
+        <v>0.004337650604207874</v>
       </c>
       <c r="F77">
-        <v>0.1106832683990872</v>
+        <v>-0.007948297574977158</v>
       </c>
       <c r="G77">
-        <v>0.0083010238647681</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.07349337118456495</v>
+      </c>
+      <c r="H77">
+        <v>-0.03083404661776943</v>
+      </c>
+      <c r="I77">
+        <v>0.08198122007361164</v>
+      </c>
+      <c r="J77">
+        <v>0.01207882994776081</v>
+      </c>
+      <c r="K77">
+        <v>0.02173392586725151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03377548844177479</v>
+        <v>0.03926423274137521</v>
       </c>
       <c r="C78">
-        <v>-0.1239008548374992</v>
+        <v>-0.1132863721077101</v>
       </c>
       <c r="D78">
-        <v>0.1688144106151127</v>
+        <v>0.09367905493278958</v>
       </c>
       <c r="E78">
-        <v>0.08817084816322103</v>
+        <v>-0.0197300492165455</v>
       </c>
       <c r="F78">
-        <v>0.1176651834264801</v>
+        <v>-0.04839341380569714</v>
       </c>
       <c r="G78">
-        <v>-0.1382242436160844</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01310401498260903</v>
+      </c>
+      <c r="H78">
+        <v>-0.1087125447827367</v>
+      </c>
+      <c r="I78">
+        <v>0.02112347747873832</v>
+      </c>
+      <c r="J78">
+        <v>-0.07129874058299863</v>
+      </c>
+      <c r="K78">
+        <v>-0.06297018347109426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02597131449127373</v>
+        <v>0.05776789116850065</v>
       </c>
       <c r="C79">
-        <v>-0.1627772059730634</v>
+        <v>-0.1412721408547671</v>
       </c>
       <c r="D79">
-        <v>0.1006256312112065</v>
+        <v>0.06740151265509016</v>
       </c>
       <c r="E79">
-        <v>-0.09570545538863283</v>
+        <v>0.04291464645500874</v>
       </c>
       <c r="F79">
-        <v>0.01780271536156276</v>
+        <v>-0.04343030576727314</v>
       </c>
       <c r="G79">
-        <v>-0.3032249959106056</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.03641138687212958</v>
+      </c>
+      <c r="H79">
+        <v>-0.2695705594279407</v>
+      </c>
+      <c r="I79">
+        <v>0.02162592831960755</v>
+      </c>
+      <c r="J79">
+        <v>-0.04357424363251931</v>
+      </c>
+      <c r="K79">
+        <v>0.06342425106505621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007471543270428489</v>
+        <v>0.0205131776130988</v>
       </c>
       <c r="C80">
-        <v>-0.05246415436604714</v>
+        <v>-0.04363194715960123</v>
       </c>
       <c r="D80">
-        <v>0.04133668538529909</v>
+        <v>0.03657389079256423</v>
       </c>
       <c r="E80">
-        <v>0.04942395990216329</v>
+        <v>-0.02011485610966357</v>
       </c>
       <c r="F80">
-        <v>0.005774723459345786</v>
+        <v>-0.03409789442127222</v>
       </c>
       <c r="G80">
-        <v>0.007635097469296959</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05239492273005045</v>
+      </c>
+      <c r="H80">
+        <v>0.07946777643423469</v>
+      </c>
+      <c r="I80">
+        <v>-0.03520432865130179</v>
+      </c>
+      <c r="J80">
+        <v>0.0090025947642533</v>
+      </c>
+      <c r="K80">
+        <v>0.02029013683905825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.003157074405690027</v>
+        <v>0.01711209632297108</v>
       </c>
       <c r="C81">
-        <v>-0.08112033872408471</v>
+        <v>-0.09551808696194521</v>
       </c>
       <c r="D81">
-        <v>0.06857532311029442</v>
+        <v>0.05627738091268981</v>
       </c>
       <c r="E81">
-        <v>-0.07684883356394838</v>
+        <v>0.02742648061216926</v>
       </c>
       <c r="F81">
-        <v>0.02721141324020623</v>
+        <v>-0.02805102207025932</v>
       </c>
       <c r="G81">
-        <v>-0.1022816433889162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02444998326924325</v>
+      </c>
+      <c r="H81">
+        <v>-0.1115611970015587</v>
+      </c>
+      <c r="I81">
+        <v>0.03902478838547517</v>
+      </c>
+      <c r="J81">
+        <v>-0.05116918318212112</v>
+      </c>
+      <c r="K81">
+        <v>0.03805581523360013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01930505848925047</v>
+        <v>0.04712044679988336</v>
       </c>
       <c r="C82">
-        <v>-0.07925664953756742</v>
+        <v>-0.1071843455916894</v>
       </c>
       <c r="D82">
-        <v>0.06662475720203594</v>
+        <v>0.06411345846151523</v>
       </c>
       <c r="E82">
-        <v>-0.09241767830696447</v>
+        <v>0.02679289988778018</v>
       </c>
       <c r="F82">
-        <v>0.0394375217644078</v>
+        <v>-0.05471172802806911</v>
       </c>
       <c r="G82">
-        <v>-0.05189850658307632</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.05481938651851271</v>
+      </c>
+      <c r="H82">
+        <v>-0.08011811659706207</v>
+      </c>
+      <c r="I82">
+        <v>0.02376266323920847</v>
+      </c>
+      <c r="J82">
+        <v>0.02161982310462432</v>
+      </c>
+      <c r="K82">
+        <v>0.01206026885143945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.004751196340725305</v>
+        <v>-0.0002393664068988031</v>
       </c>
       <c r="C83">
-        <v>-0.01516400687795173</v>
+        <v>0.02175791124309807</v>
       </c>
       <c r="D83">
-        <v>-0.1394045686867314</v>
+        <v>-0.05526358217286668</v>
       </c>
       <c r="E83">
-        <v>0.5623331118357768</v>
+        <v>0.1891427581679556</v>
       </c>
       <c r="F83">
-        <v>0.6856682934138788</v>
+        <v>-0.7389077988344221</v>
       </c>
       <c r="G83">
-        <v>-0.2293456497928753</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.5854291798711649</v>
+      </c>
+      <c r="H83">
+        <v>-0.001998696719945111</v>
+      </c>
+      <c r="I83">
+        <v>-0.01364470127994446</v>
+      </c>
+      <c r="J83">
+        <v>0.1168662766003901</v>
+      </c>
+      <c r="K83">
+        <v>-0.04428046024285412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.001719008123314458</v>
+        <v>0.01355174843760857</v>
       </c>
       <c r="C84">
-        <v>-0.09418979002371594</v>
+        <v>-0.06380141013182378</v>
       </c>
       <c r="D84">
-        <v>0.03092452827515925</v>
+        <v>0.08685321847668066</v>
       </c>
       <c r="E84">
-        <v>0.07618053360050406</v>
+        <v>-0.3738530584333798</v>
       </c>
       <c r="F84">
-        <v>-0.1566368460081396</v>
+        <v>-0.02379556848551355</v>
       </c>
       <c r="G84">
-        <v>0.01624684108978097</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.01049127301090436</v>
+      </c>
+      <c r="H84">
+        <v>0.1233786145535355</v>
+      </c>
+      <c r="I84">
+        <v>0.4896859226335665</v>
+      </c>
+      <c r="J84">
+        <v>0.6966758278622365</v>
+      </c>
+      <c r="K84">
+        <v>0.168814817142512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.001577185167981624</v>
+        <v>0.03112749655323395</v>
       </c>
       <c r="C85">
-        <v>-0.1089351952185746</v>
+        <v>-0.1151395963937927</v>
       </c>
       <c r="D85">
-        <v>0.06885077000861509</v>
+        <v>0.08031649342826723</v>
       </c>
       <c r="E85">
-        <v>-0.08357205777938452</v>
+        <v>0.05876907463321694</v>
       </c>
       <c r="F85">
-        <v>0.02227193664131694</v>
+        <v>-0.06844026031101665</v>
       </c>
       <c r="G85">
-        <v>-0.2113361745259004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.09328634532314932</v>
+      </c>
+      <c r="H85">
+        <v>-0.2310674858844892</v>
+      </c>
+      <c r="I85">
+        <v>0.01646468448845637</v>
+      </c>
+      <c r="J85">
+        <v>0.04183055799741534</v>
+      </c>
+      <c r="K85">
+        <v>0.0739280511098943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02261810761529908</v>
+        <v>0.01510852413428831</v>
       </c>
       <c r="C86">
-        <v>-0.076714593716985</v>
+        <v>-0.07719479082533399</v>
       </c>
       <c r="D86">
-        <v>-0.009257611061934413</v>
+        <v>0.03086198837928121</v>
       </c>
       <c r="E86">
-        <v>0.01286934387622059</v>
+        <v>-0.06814845177980314</v>
       </c>
       <c r="F86">
-        <v>-0.001265750769539653</v>
+        <v>0.007892320265257605</v>
       </c>
       <c r="G86">
-        <v>0.08803997401708795</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06400137287392413</v>
+      </c>
+      <c r="H86">
+        <v>-0.04589745230654423</v>
+      </c>
+      <c r="I86">
+        <v>-0.06631966572421366</v>
+      </c>
+      <c r="J86">
+        <v>-0.1040076469953594</v>
+      </c>
+      <c r="K86">
+        <v>0.1374847569304388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.0285151706270064</v>
+        <v>0.02669192691061348</v>
       </c>
       <c r="C87">
-        <v>-0.1596134186711606</v>
+        <v>-0.1169445112300019</v>
       </c>
       <c r="D87">
-        <v>0.02821135036395795</v>
+        <v>0.01868668016505447</v>
       </c>
       <c r="E87">
-        <v>0.09204976904664099</v>
+        <v>0.0184189116582503</v>
       </c>
       <c r="F87">
-        <v>-0.06255066444306245</v>
+        <v>0.03943528358517399</v>
       </c>
       <c r="G87">
-        <v>0.001719968397784775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.04863000362899395</v>
+      </c>
+      <c r="H87">
+        <v>-0.007716162502883732</v>
+      </c>
+      <c r="I87">
+        <v>0.05404295243011069</v>
+      </c>
+      <c r="J87">
+        <v>0.001246585653758219</v>
+      </c>
+      <c r="K87">
+        <v>-0.1065444085887809</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.009244792656168272</v>
+        <v>0.03929792570677863</v>
       </c>
       <c r="C88">
-        <v>-0.03595046036330253</v>
+        <v>-0.05888242531110827</v>
       </c>
       <c r="D88">
-        <v>0.0402746193588155</v>
+        <v>0.03851575680088743</v>
       </c>
       <c r="E88">
-        <v>-0.05326774101394872</v>
+        <v>0.02505272059371918</v>
       </c>
       <c r="F88">
-        <v>0.009771226752028676</v>
+        <v>0.005915858170931533</v>
       </c>
       <c r="G88">
-        <v>0.01010804520600812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01990943595497716</v>
+      </c>
+      <c r="H88">
+        <v>0.01079756840837385</v>
+      </c>
+      <c r="I88">
+        <v>-0.007410332374286665</v>
+      </c>
+      <c r="J88">
+        <v>-0.01589110530014464</v>
+      </c>
+      <c r="K88">
+        <v>-0.01730872815442812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4007125510291855</v>
+        <v>0.3899295715137402</v>
       </c>
       <c r="C89">
-        <v>0.08365740316369506</v>
+        <v>0.122962390138145</v>
       </c>
       <c r="D89">
-        <v>0.0689193131664929</v>
+        <v>-0.0383356576237083</v>
       </c>
       <c r="E89">
-        <v>0.0587355941271652</v>
+        <v>-0.01196226339324392</v>
       </c>
       <c r="F89">
-        <v>-0.08674588772405067</v>
+        <v>0.05859591549924561</v>
       </c>
       <c r="G89">
-        <v>-0.04982920202570883</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01562916122201503</v>
+      </c>
+      <c r="H89">
+        <v>0.03286773335499326</v>
+      </c>
+      <c r="I89">
+        <v>0.04648154815194012</v>
+      </c>
+      <c r="J89">
+        <v>0.07086058968901254</v>
+      </c>
+      <c r="K89">
+        <v>-0.7382798268570117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3104139471490133</v>
+        <v>0.3162178322672033</v>
       </c>
       <c r="C90">
-        <v>0.02443435006412197</v>
+        <v>0.0794047923139604</v>
       </c>
       <c r="D90">
-        <v>0.008530516944521593</v>
+        <v>-0.01872361675995174</v>
       </c>
       <c r="E90">
-        <v>0.0547008404784258</v>
+        <v>-0.01161255509065615</v>
       </c>
       <c r="F90">
-        <v>0.05488393304652197</v>
+        <v>0.007538180620434674</v>
       </c>
       <c r="G90">
-        <v>0.01799315610034104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0289112298053248</v>
+      </c>
+      <c r="H90">
+        <v>8.88959641624765e-05</v>
+      </c>
+      <c r="I90">
+        <v>0.01258983353209796</v>
+      </c>
+      <c r="J90">
+        <v>0.006748762764923014</v>
+      </c>
+      <c r="K90">
+        <v>0.1042366773343045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02337354349220365</v>
+        <v>0.0564444462509746</v>
       </c>
       <c r="C91">
-        <v>-0.07769339807492731</v>
+        <v>-0.07831908875004628</v>
       </c>
       <c r="D91">
-        <v>0.05497426645598349</v>
+        <v>0.05265413606744572</v>
       </c>
       <c r="E91">
-        <v>-0.04592911442907955</v>
+        <v>0.05223761177553928</v>
       </c>
       <c r="F91">
-        <v>0.03997742059825679</v>
+        <v>-0.04688018447545788</v>
       </c>
       <c r="G91">
-        <v>-0.09159178136326734</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.008468767689352862</v>
+      </c>
+      <c r="H91">
+        <v>-0.08719158274599369</v>
+      </c>
+      <c r="I91">
+        <v>-0.008433937585473001</v>
+      </c>
+      <c r="J91">
+        <v>0.02425406593455684</v>
+      </c>
+      <c r="K91">
+        <v>0.002743405805083196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3785658879952506</v>
+        <v>0.3495587998166754</v>
       </c>
       <c r="C92">
-        <v>0.07601816081059665</v>
+        <v>0.125778717178532</v>
       </c>
       <c r="D92">
-        <v>-0.02136107096704758</v>
+        <v>-0.05636977251923438</v>
       </c>
       <c r="E92">
-        <v>-0.01283277381536218</v>
+        <v>-0.02202526098294893</v>
       </c>
       <c r="F92">
-        <v>-0.1221513450510129</v>
+        <v>0.05780457587495785</v>
       </c>
       <c r="G92">
-        <v>0.009402074432933703</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01852618244484286</v>
+      </c>
+      <c r="H92">
+        <v>-0.01020980214091549</v>
+      </c>
+      <c r="I92">
+        <v>0.04165727429590281</v>
+      </c>
+      <c r="J92">
+        <v>-0.06239803105684742</v>
+      </c>
+      <c r="K92">
+        <v>0.1344951100275562</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3042548592672274</v>
+        <v>0.3068587819064997</v>
       </c>
       <c r="C93">
-        <v>0.08340342596877462</v>
+        <v>0.1231638795048327</v>
       </c>
       <c r="D93">
-        <v>0.00814373609169753</v>
+        <v>-0.007073009569848895</v>
       </c>
       <c r="E93">
-        <v>0.07913649053200116</v>
+        <v>-0.04173925041904131</v>
       </c>
       <c r="F93">
-        <v>-0.03891272552675878</v>
+        <v>0.01434237700947753</v>
       </c>
       <c r="G93">
-        <v>0.008438060394238989</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03505266912481646</v>
+      </c>
+      <c r="H93">
+        <v>-0.03871028209983481</v>
+      </c>
+      <c r="I93">
+        <v>0.01344990116566502</v>
+      </c>
+      <c r="J93">
+        <v>-0.03360208988835001</v>
+      </c>
+      <c r="K93">
+        <v>0.1187175680062247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03642634024828733</v>
+        <v>0.08316074252195352</v>
       </c>
       <c r="C94">
-        <v>-0.1918888684737162</v>
+        <v>-0.1643079922377274</v>
       </c>
       <c r="D94">
-        <v>0.125895364598325</v>
+        <v>0.1109006228855174</v>
       </c>
       <c r="E94">
-        <v>-0.1461373152088284</v>
+        <v>0.06566428189042593</v>
       </c>
       <c r="F94">
-        <v>-0.07921180498182528</v>
+        <v>-0.07889211174074647</v>
       </c>
       <c r="G94">
-        <v>-0.5932203030559018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.08952178154827314</v>
+      </c>
+      <c r="H94">
+        <v>-0.5433317966319763</v>
+      </c>
+      <c r="I94">
+        <v>-0.1068821609188542</v>
+      </c>
+      <c r="J94">
+        <v>0.1885977321846615</v>
+      </c>
+      <c r="K94">
+        <v>-0.07528005821704138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02448679334941581</v>
+        <v>0.04423660808955467</v>
       </c>
       <c r="C95">
-        <v>-0.1212500309405419</v>
+        <v>-0.1310762907882106</v>
       </c>
       <c r="D95">
-        <v>0.05181205555044621</v>
+        <v>0.06391931338685253</v>
       </c>
       <c r="E95">
-        <v>-0.06892030388271912</v>
+        <v>0.01368912929468262</v>
       </c>
       <c r="F95">
-        <v>0.1033606727321598</v>
+        <v>-0.01772846735610721</v>
       </c>
       <c r="G95">
-        <v>0.01797347707235422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.08711726128696698</v>
+      </c>
+      <c r="H95">
+        <v>0.04603456882245485</v>
+      </c>
+      <c r="I95">
+        <v>0.08944760506420217</v>
+      </c>
+      <c r="J95">
+        <v>0.07058521038406659</v>
+      </c>
+      <c r="K95">
+        <v>-0.1808311332948168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.00228156024061735</v>
+        <v>0.02063875704629708</v>
       </c>
       <c r="C97">
-        <v>-0.00100049032593045</v>
+        <v>-0.02733839839576324</v>
       </c>
       <c r="D97">
-        <v>0.0008656524214579401</v>
+        <v>-0.006957436378608997</v>
       </c>
       <c r="E97">
-        <v>-0.003389971384061957</v>
+        <v>-0.05371243856976889</v>
       </c>
       <c r="F97">
-        <v>-0.002013466430374439</v>
+        <v>-0.01057995211637215</v>
       </c>
       <c r="G97">
-        <v>0.006380189222939017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03371745728536683</v>
+      </c>
+      <c r="H97">
+        <v>0.02847208412040532</v>
+      </c>
+      <c r="I97">
+        <v>-0.03256306851876122</v>
+      </c>
+      <c r="J97">
+        <v>-0.04536310929090968</v>
+      </c>
+      <c r="K97">
+        <v>-0.05081324427376666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09453603228781064</v>
+        <v>0.1391938904492105</v>
       </c>
       <c r="C98">
-        <v>-0.1527805509575235</v>
+        <v>-0.1620336112658012</v>
       </c>
       <c r="D98">
-        <v>0.1471588295880963</v>
+        <v>0.08835395484889558</v>
       </c>
       <c r="E98">
-        <v>-0.1237836336515859</v>
+        <v>0.1435818031946716</v>
       </c>
       <c r="F98">
-        <v>0.1503556900366751</v>
+        <v>-0.09591122501386293</v>
       </c>
       <c r="G98">
-        <v>0.187057059132728</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1609585866672534</v>
+      </c>
+      <c r="H98">
+        <v>0.2835351056709675</v>
+      </c>
+      <c r="I98">
+        <v>-0.2868881329047696</v>
+      </c>
+      <c r="J98">
+        <v>0.1448265781344086</v>
+      </c>
+      <c r="K98">
+        <v>0.1370924868870547</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03023749068751991</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0660890588674098</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009786777404821858</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.7921948060007428</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.3823860880973919</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.1971426277309442</v>
+      </c>
+      <c r="H99">
+        <v>-0.009960366244160447</v>
+      </c>
+      <c r="I99">
+        <v>-0.2742089992454627</v>
+      </c>
+      <c r="J99">
+        <v>-0.2039964511776734</v>
+      </c>
+      <c r="K99">
+        <v>-0.09592639050654798</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01156406528430457</v>
+        <v>0.01716775435071412</v>
       </c>
       <c r="C101">
-        <v>-0.08115374138609983</v>
+        <v>-0.08107466166571198</v>
       </c>
       <c r="D101">
-        <v>0.04774035949319221</v>
+        <v>0.04730090340269862</v>
       </c>
       <c r="E101">
-        <v>0.006708623405774541</v>
+        <v>0.01943889198831292</v>
       </c>
       <c r="F101">
-        <v>0.0520463979947906</v>
+        <v>-0.03073939630935785</v>
       </c>
       <c r="G101">
-        <v>0.08900538579098251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.02549992711278098</v>
+      </c>
+      <c r="H101">
+        <v>0.1533830743394104</v>
+      </c>
+      <c r="I101">
+        <v>0.2170686320739917</v>
+      </c>
+      <c r="J101">
+        <v>-0.1486948649247137</v>
+      </c>
+      <c r="K101">
+        <v>-0.03577136974696287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004250096980143112</v>
+        <v>0.001920165086739729</v>
       </c>
       <c r="C102">
-        <v>-0.01508464381560551</v>
+        <v>-0.006202600144982215</v>
       </c>
       <c r="D102">
-        <v>-0.00397830705659176</v>
+        <v>-0.002990764450350433</v>
       </c>
       <c r="E102">
-        <v>-0.01794024340675641</v>
+        <v>0.003670846013033412</v>
       </c>
       <c r="F102">
-        <v>0.01460166804363897</v>
+        <v>-0.001620271630150642</v>
       </c>
       <c r="G102">
-        <v>-0.01093406429790138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.001941541181042049</v>
+      </c>
+      <c r="H102">
+        <v>-0.002439149801758501</v>
+      </c>
+      <c r="I102">
+        <v>0.005048213377085209</v>
+      </c>
+      <c r="J102">
+        <v>-0.00579110811117621</v>
+      </c>
+      <c r="K102">
+        <v>-0.01616649148307373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
